--- a/6月/商城支付/基础测试/支付- 王倩.xlsx
+++ b/6月/商城支付/基础测试/支付- 王倩.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="登录-支付" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="84">
   <si>
     <t>撰写人：</t>
   </si>
@@ -51,9 +51,6 @@
     <t>测试项目</t>
   </si>
   <si>
-    <t>细分项目</t>
-  </si>
-  <si>
     <t>测试类型</t>
   </si>
   <si>
@@ -61,15 +58,88 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>测试人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试结果</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功生成二维码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>刷新全部订单页面，等待2-3分钟，该订单显示全额退款</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击提醒卖家按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>王倩</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>支付宝</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>测试人</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试结果</t>
+    <t>点击支付宝按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>退款成功</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作前提</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>扫描二维码，判断二维码金额与商品实际金额不同性</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不同</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不点击支付宝按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>未成功生成二维码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">在网络良好情况下的二维码页面，断开网络，扫码支付成功
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>扫描二维码，判断二维码金额与商品实际金额相同性</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>相同</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>扫描二维码，支付成功</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -77,35 +147,27 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>支付</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击支付宝按钮</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>成功生成二维码</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">   扫描二维码</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>再次扫描二维码</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>重新生成二维码成功</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击"重新生成二维码"</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>成功支付订单金额</t>
+    <t>扫描二维码，支付失败</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付宝未支付，实际商品金额</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付密码错误</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无网络</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>刷新当前二维码页面，二维码刷新成功</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回成功提交订单页面，刷新该页面，显示已支付</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -113,11 +175,112 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>未点击申请退款按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>退款失败</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>未点击提醒卖家按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>提醒卖家发货失败</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
+  </si>
+  <si>
+    <t>√</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功生成账户汇款信息（浙江网商银行股份有限公司/打款号/北京智慧云彩电子商务科技有限公司（供应商）/汇款金额）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇款金额=实际汇款金额</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际汇款金额超大额（eg:10000)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇款支付密码错误</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">汇款成功
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇款失败
+（ps:该商品汇款金额：0.02）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇款金额&gt;实际汇款金额 (eg:0.02 &gt; 0.03 )</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机无网络</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统提示已支付成功订单请勿进行该操作</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>成功提醒卖家发货</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>退款成功</t>
+    <t>汇款成功后，点击"重新生成打款号"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>未汇款，点击"重新生成打款号"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>扫描二维码，未支付</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击重新生成二维码,重新生成二维码成功</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>扫描二维码，支付成功后</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>刷新当前页面提示语有误</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付成功后，再次扫描二维码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统提示不允许重复支付</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付宝取消支付，实际商品金额</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付余额不足</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -125,11 +288,15 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>刷新全部订单页面，该订单显示全额退款</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>支付宝扫描二维码未支付，再次重新生成二维码,扫码支付成功</t>
+    <t>刷新当前全部订单页面，显示全额退款</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击提醒卖家按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功提醒卖家发货</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -137,39 +304,28 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>成功生成账户汇款信息（浙江网商银行股份有限公司/打款号/北京智慧云彩电子商务科技有限公司（供应商）/汇款金额）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单实际商品金额与二维码一致</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>汇款金额=实际汇款金额，汇款成功</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击"重新生成打款号"</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统提示不允许重复支付</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>再次进行汇款，系统提示已支付成功订单请勿进行该操作，汇款失败</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>页面成功更新打款号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击申请退款按钮</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>退款成功</t>
+    <t xml:space="preserve">点击汇款支付按钮
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇款成功后</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击提示弹窗中确定生成支付码后出现提示语有误</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇款金额&lt;实际汇款金额(eg:0.02 &lt; 0.01 )</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇款金额等于0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>银行卡余额不足</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -177,68 +333,15 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>刷新全部订单页面，等待2-3分钟，该订单显示全额退款</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击提醒卖家按钮</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击汇款支付按钮
-（ps:汇款金额：0.02）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>汇款金额&lt;实际汇款金额，汇款失败 (eg:0.02 &lt; 0.01 )</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>汇款金额等于0，汇款失败</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>汇款金额&gt;实际汇款金额，汇款失败 (eg:0.02 &gt; 0.03 )</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>实际汇款金额超大额（eg:10000)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>汇款支付密码错误，汇款失败</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>支付密码错误，支付失败</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>银行卡余额不足</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>支付余额不足，支付失败</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>扫描二维码并且支付成功</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>不支付，退出，再次扫码支付，支付成功</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>不汇款，退出，再次输入汇款信息，汇款成功</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>王倩</t>
+    <t>支付宝支付，实际商品金额，成功</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功生成新打款号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>刷新页面成功更新打款号</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -270,15 +373,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -297,7 +391,15 @@
     </font>
     <font>
       <b/>
-      <sz val="14"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
@@ -306,7 +408,7 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
@@ -352,7 +454,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -405,6 +507,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -412,53 +525,45 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -762,575 +867,796 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="18.75" customWidth="1"/>
-    <col min="2" max="2" width="27.75" customWidth="1"/>
-    <col min="3" max="3" width="23.625" customWidth="1"/>
-    <col min="4" max="4" width="59.25" customWidth="1"/>
-    <col min="5" max="5" width="17" customWidth="1"/>
-    <col min="6" max="6" width="13.75" customWidth="1"/>
-    <col min="7" max="7" width="12.625" customWidth="1"/>
+    <col min="1" max="1" width="19.5" customWidth="1"/>
+    <col min="2" max="2" width="24" customWidth="1"/>
+    <col min="3" max="3" width="49.625" customWidth="1"/>
+    <col min="4" max="4" width="56" customWidth="1"/>
+    <col min="5" max="5" width="16.125" customWidth="1"/>
+    <col min="6" max="6" width="10.75" customWidth="1"/>
+    <col min="7" max="7" width="12.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-    </row>
-    <row r="2" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="8" t="s">
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-    </row>
-    <row r="3" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="8" t="s">
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
     </row>
     <row r="4" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
     </row>
     <row r="5" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="4" t="s">
+      <c r="F5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="4" t="s">
+      <c r="F6" s="8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="6" t="s">
+      <c r="G6" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="F7" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="12"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="6"/>
-    </row>
-    <row r="9" spans="1:7" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="7" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="11"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" s="12"/>
+    </row>
+    <row r="8" spans="1:7" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="9"/>
+    </row>
+    <row r="9" spans="1:7" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="12"/>
       <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
+      <c r="C9" s="12" t="s">
+        <v>25</v>
+      </c>
       <c r="D9" s="12" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="F9" s="18" t="s">
-        <v>17</v>
+        <v>12</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>46</v>
       </c>
       <c r="G9" s="12"/>
     </row>
-    <row r="10" spans="1:7" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="12"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" s="6"/>
-    </row>
-    <row r="11" spans="1:7" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="9"/>
+    </row>
+    <row r="11" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="12"/>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
       <c r="D11" s="12" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="F11" s="18" t="s">
-        <v>17</v>
+        <v>12</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>46</v>
       </c>
       <c r="G11" s="12"/>
     </row>
-    <row r="12" spans="1:7" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="12"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" s="6"/>
-    </row>
-    <row r="13" spans="1:7" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" s="9"/>
+    </row>
+    <row r="13" spans="1:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="12"/>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
       <c r="D13" s="12" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="F13" s="18" t="s">
-        <v>17</v>
+        <v>12</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>15</v>
       </c>
       <c r="G13" s="12"/>
     </row>
-    <row r="14" spans="1:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="12"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G14" s="6"/>
-    </row>
-    <row r="15" spans="1:7" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="G14" s="9"/>
+    </row>
+    <row r="15" spans="1:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="12"/>
       <c r="B15" s="12"/>
-      <c r="C15" s="12" t="s">
-        <v>24</v>
-      </c>
+      <c r="C15" s="12"/>
       <c r="D15" s="12" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="F15" s="18" t="s">
-        <v>17</v>
+        <v>12</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>15</v>
       </c>
       <c r="G15" s="12"/>
     </row>
-    <row r="16" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="12"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="6"/>
-    </row>
-    <row r="17" spans="1:7" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" s="9"/>
+    </row>
+    <row r="17" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="12"/>
       <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
+      <c r="C17" s="12" t="s">
+        <v>35</v>
+      </c>
       <c r="D17" s="12" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="F17" s="18" t="s">
-        <v>17</v>
+        <v>32</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>34</v>
       </c>
       <c r="G17" s="12"/>
     </row>
-    <row r="18" spans="1:7" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="12"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G18" s="6"/>
-    </row>
-    <row r="19" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G18" s="9"/>
+    </row>
+    <row r="19" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="12"/>
       <c r="B19" s="12"/>
-      <c r="C19" s="12" t="s">
-        <v>44</v>
-      </c>
+      <c r="C19" s="12"/>
       <c r="D19" s="12" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="F19" s="18" t="s">
-        <v>17</v>
+        <v>32</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>47</v>
       </c>
       <c r="G19" s="12"/>
     </row>
-    <row r="20" spans="1:7" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="12"/>
-      <c r="B20" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G20" s="6"/>
-    </row>
-    <row r="21" spans="1:7" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="17"/>
+    <row r="20" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G20" s="9"/>
+    </row>
+    <row r="21" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="12"/>
       <c r="B21" s="12"/>
       <c r="C21" s="12"/>
       <c r="D21" s="12" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="F21" s="18" t="s">
-        <v>17</v>
+        <v>32</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>47</v>
       </c>
       <c r="G21" s="12"/>
     </row>
-    <row r="22" spans="1:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="12"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G22" s="6"/>
-    </row>
-    <row r="23" spans="1:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G22" s="9"/>
+    </row>
+    <row r="23" spans="1:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="12"/>
       <c r="B23" s="12"/>
       <c r="C23" s="12"/>
       <c r="D23" s="12" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="F23" s="18" t="s">
-        <v>17</v>
+        <v>32</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>34</v>
       </c>
       <c r="G23" s="12"/>
     </row>
-    <row r="24" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="17"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G24" s="6"/>
-    </row>
-    <row r="25" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="9"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G24" s="9"/>
+    </row>
+    <row r="25" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="12"/>
       <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
+      <c r="C25" s="12" t="s">
+        <v>42</v>
+      </c>
       <c r="D25" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F25" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="E25" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="F25" s="18" t="s">
-        <v>17</v>
-      </c>
       <c r="G25" s="12"/>
     </row>
-    <row r="26" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="12"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G26" s="6"/>
-    </row>
-    <row r="27" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="9"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G26" s="9"/>
+    </row>
+    <row r="27" spans="1:7" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="12"/>
       <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
+      <c r="C27" s="12" t="s">
+        <v>44</v>
+      </c>
       <c r="D27" s="12" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="F27" s="18" t="s">
-        <v>17</v>
+        <v>32</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>47</v>
       </c>
       <c r="G27" s="12"/>
     </row>
-    <row r="28" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="12"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G28" s="6"/>
-    </row>
-    <row r="29" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="17"/>
+    <row r="28" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="9"/>
+      <c r="B28" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G28" s="9"/>
+    </row>
+    <row r="29" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="12"/>
       <c r="B29" s="12"/>
       <c r="C29" s="12" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="F29" s="18" t="s">
-        <v>17</v>
+        <v>12</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>47</v>
       </c>
       <c r="G29" s="12"/>
     </row>
-    <row r="30" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="12"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G30" s="6"/>
-    </row>
-    <row r="31" spans="1:7" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="17"/>
+    <row r="30" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="9"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G30" s="9"/>
+    </row>
+    <row r="31" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="12"/>
       <c r="B31" s="12"/>
       <c r="C31" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G31" s="12"/>
+    </row>
+    <row r="32" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="9"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D32" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D31" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="E31" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="F31" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="G31" s="12"/>
-    </row>
-    <row r="32" spans="1:7" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="12"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G32" s="6"/>
-    </row>
-    <row r="33" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="17"/>
+      <c r="E32" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G32" s="9"/>
+    </row>
+    <row r="33" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="12"/>
       <c r="B33" s="12"/>
-      <c r="C33" s="12"/>
+      <c r="C33" s="12" t="s">
+        <v>58</v>
+      </c>
       <c r="D33" s="12" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="F33" s="18" t="s">
-        <v>17</v>
+        <v>12</v>
+      </c>
+      <c r="F33" s="13" t="s">
+        <v>15</v>
       </c>
       <c r="G33" s="12"/>
     </row>
-    <row r="34" spans="1:7" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="12"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G34" s="6"/>
-    </row>
-    <row r="35" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="17"/>
+    <row r="34" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="9"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="G34" s="9"/>
+    </row>
+    <row r="35" spans="1:7" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="12"/>
       <c r="B35" s="12"/>
       <c r="C35" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G35" s="12"/>
+    </row>
+    <row r="36" spans="1:7" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="9"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G36" s="9"/>
+    </row>
+    <row r="37" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="12"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E37" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F37" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G37" s="12"/>
+    </row>
+    <row r="38" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="9"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G38" s="9"/>
+    </row>
+    <row r="39" spans="1:7" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="12"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="E39" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F39" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G39" s="12"/>
+    </row>
+    <row r="40" spans="1:7" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="9"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G40" s="9"/>
+    </row>
+    <row r="41" spans="1:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="12"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E41" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F41" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G41" s="12"/>
+    </row>
+    <row r="42" spans="1:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="9"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G42" s="9"/>
+    </row>
+    <row r="43" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="12"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="E43" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F43" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G43" s="12"/>
+    </row>
+    <row r="44" spans="1:7" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="9"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F44" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G44" s="9"/>
+    </row>
+    <row r="45" spans="1:7" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="12"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E45" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F45" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G45" s="12"/>
+    </row>
+    <row r="46" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="9"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G46" s="9"/>
+    </row>
+    <row r="47" spans="1:7" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="12"/>
+      <c r="B47" s="12"/>
+      <c r="C47" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D47" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E47" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F47" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G47" s="12"/>
+    </row>
+    <row r="48" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="9"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D35" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E35" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="F35" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="G35" s="12"/>
+      <c r="D48" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E48" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G48" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
